--- a/data/dataPaper-I-in/arphified/Phoronida.xlsx
+++ b/data/dataPaper-I-in/arphified/Phoronida.xlsx
@@ -618,76 +618,76 @@
     <t>${catalogNumber}</t>
   </si>
   <si>
+    <t>${recordedBy}</t>
+  </si>
+  <si>
+    <t>${individualCount}</t>
+  </si>
+  <si>
+    <t>${sex}</t>
+  </si>
+  <si>
+    <t>PRESENT</t>
+  </si>
+  <si>
+    <t>${taxonName}</t>
+  </si>
+  <si>
+    <t>!references.ref</t>
+  </si>
+  <si>
+    <t>iNaturalist:${iNaturalistTaxonId}</t>
+  </si>
+  <si>
+    <t>${scientificName}</t>
+  </si>
+  <si>
+    <t>${kingdom}</t>
+  </si>
+  <si>
+    <t>${phylum}</t>
+  </si>
+  <si>
+    <t>${class}</t>
+  </si>
+  <si>
+    <t>${order}</t>
+  </si>
+  <si>
+    <t>${family}</t>
+  </si>
+  <si>
+    <t>${genus}</t>
+  </si>
+  <si>
+    <t>${subgenus}</t>
+  </si>
+  <si>
+    <t>Galiano Island</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>British Columbia</t>
+  </si>
+  <si>
+    <t>${locality}</t>
+  </si>
+  <si>
+    <t>${depth}</t>
+  </si>
+  <si>
+    <t>${latitude}</t>
+  </si>
+  <si>
+    <t>${longitude}</t>
+  </si>
+  <si>
     <t>Confidence: ${confidence}</t>
-  </si>
-  <si>
-    <t>${recordedBy}</t>
-  </si>
-  <si>
-    <t>${individualCount}</t>
-  </si>
-  <si>
-    <t>${sex}</t>
-  </si>
-  <si>
-    <t>PRESENT</t>
-  </si>
-  <si>
-    <t>${taxonName}</t>
-  </si>
-  <si>
-    <t>!references.ref</t>
-  </si>
-  <si>
-    <t>iNaturalist:${iNaturalistTaxonId}</t>
-  </si>
-  <si>
-    <t>${scientificName}</t>
-  </si>
-  <si>
-    <t>${kingdom}</t>
-  </si>
-  <si>
-    <t>${phylum}</t>
-  </si>
-  <si>
-    <t>${class}</t>
-  </si>
-  <si>
-    <t>${order}</t>
-  </si>
-  <si>
-    <t>${family}</t>
-  </si>
-  <si>
-    <t>${genus}</t>
-  </si>
-  <si>
-    <t>${subgenus}</t>
-  </si>
-  <si>
-    <t>Galiano Island</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>British Columbia</t>
-  </si>
-  <si>
-    <t>${locality}</t>
-  </si>
-  <si>
-    <t>${depth}</t>
-  </si>
-  <si>
-    <t>${latitude}</t>
-  </si>
-  <si>
-    <t>${longitude}</t>
   </si>
   <si>
     <t>!references.samplingProtocol</t>
@@ -1818,301 +1818,301 @@
         <v>36</v>
       </c>
       <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
         <v>201</v>
       </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
         <v>202</v>
       </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>203</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" t="s">
         <v>204</v>
       </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
         <v>205</v>
       </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
         <v>206</v>
       </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" t="s">
         <v>207</v>
       </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG2" t="s">
         <v>208</v>
       </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN2" t="s">
         <v>209</v>
       </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>210</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>211</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>212</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>213</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>214</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>215</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK2" t="s">
         <v>216</v>
       </c>
-      <c r="AU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>217</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
         <v>218</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BN2" t="s">
         <v>219</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ2" t="s">
         <v>220</v>
       </c>
-      <c r="BO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BQ2" t="s">
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV2" t="s">
         <v>221</v>
       </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BV2" t="s">
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CH2" t="s">
         <v>222</v>
       </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CH2" t="s">
+      <c r="CI2" t="s">
         <v>223</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>201</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ2" t="s">
         <v>224</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>202</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>36</v>
       </c>
       <c r="DA2" t="s">
         <v>36</v>
@@ -2235,7 +2235,7 @@
         <v>36</v>
       </c>
       <c r="EO2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="EP2" t="s">
         <v>36</v>

--- a/data/dataPaper-I-in/arphified/Phoronida.xlsx
+++ b/data/dataPaper-I-in/arphified/Phoronida.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="240">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -685,6 +685,9 @@
   </si>
   <si>
     <t>${longitude}</t>
+  </si>
+  <si>
+    <t>${coordinateUncertaintyInMeters}</t>
   </si>
   <si>
     <t>Confidence: ${confidence}</t>
@@ -2067,7 +2070,7 @@
         <v>36</v>
       </c>
       <c r="CK2" t="s">
-        <v>36</v>
+        <v>224</v>
       </c>
       <c r="CL2" t="s">
         <v>36</v>
@@ -2112,7 +2115,7 @@
         <v>36</v>
       </c>
       <c r="CZ2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="DA2" t="s">
         <v>36</v>
@@ -2175,13 +2178,13 @@
         <v>36</v>
       </c>
       <c r="DU2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="DV2" t="s">
         <v>36</v>
       </c>
       <c r="DW2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="DX2" t="s">
         <v>36</v>
@@ -2193,13 +2196,13 @@
         <v>36</v>
       </c>
       <c r="EA2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="EB2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="EC2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="ED2" t="s">
         <v>36</v>
@@ -2208,13 +2211,13 @@
         <v>36</v>
       </c>
       <c r="EF2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="EG2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="EH2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="EI2" t="s">
         <v>36</v>
@@ -2247,19 +2250,19 @@
         <v>36</v>
       </c>
       <c r="ES2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="ET2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="EU2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="EV2" t="s">
         <v>36</v>
       </c>
       <c r="EW2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="EX2" t="s">
         <v>36</v>
@@ -2290,10 +2293,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Phoronida.xlsx
+++ b/data/dataPaper-I-in/arphified/Phoronida.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="248">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -267,6 +267,15 @@
     <t>order</t>
   </si>
   <si>
+    <t>suborder</t>
+  </si>
+  <si>
+    <t>infraorder</t>
+  </si>
+  <si>
+    <t>superfamily</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
@@ -639,7 +648,7 @@
     <t>iNaturalist:${iNaturalistTaxonId}</t>
   </si>
   <si>
-    <t>${scientificName}</t>
+    <t>${summary.taxonName}</t>
   </si>
   <si>
     <t>${kingdom}</t>
@@ -654,6 +663,15 @@
     <t>${order}</t>
   </si>
   <si>
+    <t>${suborder}</t>
+  </si>
+  <si>
+    <t>${infraorder}</t>
+  </si>
+  <si>
+    <t>${superfamily}</t>
+  </si>
+  <si>
     <t>${family}</t>
   </si>
   <si>
@@ -663,6 +681,9 @@
     <t>${subgenus}</t>
   </si>
   <si>
+    <t>${summary.Author}</t>
+  </si>
+  <si>
     <t>Galiano Island</t>
   </si>
   <si>
@@ -697,6 +718,9 @@
   </si>
   <si>
     <t>!Date:YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>!Date:HH:mm:ss</t>
   </si>
   <si>
     <t>!Date:YYYY</t>
@@ -1328,10 +1352,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FA2"/>
+  <dimension ref="A1:FD2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:157" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1803,19 +1827,28 @@
       <c r="FA1" t="s">
         <v>197</v>
       </c>
+      <c r="FB1" t="s">
+        <v>198</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>199</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>200</v>
+      </c>
     </row>
-    <row r="2" spans="1:157" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:160" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
@@ -1827,16 +1860,16 @@
         <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I2" t="s">
         <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L2" t="s">
         <v>36</v>
@@ -1851,429 +1884,438 @@
         <v>36</v>
       </c>
       <c r="P2" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
+        <v>208</v>
+      </c>
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
+        <v>209</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>222</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>223</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>224</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>225</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>226</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>227</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>228</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>229</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>230</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>231</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
         <v>204</v>
       </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
-        <v>205</v>
-      </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
-        <v>206</v>
-      </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>208</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>232</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>233</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>234</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>235</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>236</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>237</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>238</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>239</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>240</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>241</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ER2" t="s">
         <v>209</v>
       </c>
-      <c r="AO2" t="s">
-        <v>210</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>211</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>212</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>213</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>214</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>215</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>216</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>217</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>218</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>219</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>220</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>221</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>222</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>223</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>224</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>201</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>225</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>226</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>227</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>228</v>
-      </c>
-      <c r="EB2" t="s">
-        <v>229</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>230</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EF2" t="s">
-        <v>231</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>232</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>233</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>206</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>36</v>
-      </c>
       <c r="ES2" t="s">
-        <v>234</v>
+        <v>36</v>
       </c>
       <c r="ET2" t="s">
-        <v>235</v>
+        <v>36</v>
       </c>
       <c r="EU2" t="s">
-        <v>236</v>
+        <v>36</v>
       </c>
       <c r="EV2" t="s">
-        <v>36</v>
+        <v>242</v>
       </c>
       <c r="EW2" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="EX2" t="s">
-        <v>36</v>
+        <v>244</v>
       </c>
       <c r="EY2" t="s">
         <v>36</v>
       </c>
       <c r="EZ2" t="s">
-        <v>36</v>
+        <v>245</v>
       </c>
       <c r="FA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="FD2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2293,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C1" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Phoronida.xlsx
+++ b/data/dataPaper-I-in/arphified/Phoronida.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="241">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -267,15 +267,6 @@
     <t>order</t>
   </si>
   <si>
-    <t>suborder</t>
-  </si>
-  <si>
-    <t>infraorder</t>
-  </si>
-  <si>
-    <t>superfamily</t>
-  </si>
-  <si>
     <t>family</t>
   </si>
   <si>
@@ -618,9 +609,6 @@
     <t>source</t>
   </si>
   <si>
-    <t>${iNaturalistTaxonId}</t>
-  </si>
-  <si>
     <t>${gbifOccurrenceID}</t>
   </si>
   <si>
@@ -663,15 +651,6 @@
     <t>${order}</t>
   </si>
   <si>
-    <t>${suborder}</t>
-  </si>
-  <si>
-    <t>${infraorder}</t>
-  </si>
-  <si>
-    <t>${superfamily}</t>
-  </si>
-  <si>
     <t>${family}</t>
   </si>
   <si>
@@ -681,7 +660,7 @@
     <t>${subgenus}</t>
   </si>
   <si>
-    <t>${summary.Author}</t>
+    <t>${summary.authority}</t>
   </si>
   <si>
     <t>Galiano Island</t>
@@ -1352,970 +1331,946 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FD2"/>
+  <dimension ref="A1:EZ2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:156" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="U1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="X1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Z1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AA1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AB1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AC1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AO1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AP1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AQ1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AR1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AS1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AT1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AU1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AV1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AW1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AX1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AY1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AZ1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="BA1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="BB1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="BC1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BD1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="BE1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BF1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BG1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BH1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BI1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="BJ1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BK1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="BL1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="BM1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="BN1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="BO1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="BP1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BQ1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BR1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BS1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="BT1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="BU1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BV1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BW1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BX1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BY1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="BZ1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="CA1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="CB1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="CC1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="CD1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="CE1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="CF1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="CG1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="CH1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="CI1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="CJ1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="CK1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="CL1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="CM1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="CN1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="CO1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="CP1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="CQ1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="CR1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="CS1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="CT1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="CU1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="CV1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="CW1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="CX1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="CY1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="CZ1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="DA1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="DB1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DC1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="DD1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="DE1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="DF1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DG1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DH1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="DI1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="DJ1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="DK1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="DL1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DM1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DN1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="DO1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="DP1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="DQ1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="DR1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="DS1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DT1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="DU1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="DV1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="DW1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="DX1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="DY1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="DZ1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="EA1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="EB1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="EC1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="ED1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="EE1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="EF1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="EG1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="EH1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="EI1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="EJ1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="EK1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="EL1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="EM1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="EN1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="EO1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="EP1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="EQ1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="ER1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="ES1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="ET1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="EU1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EV1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="EW1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="EX1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="EY1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="EZ1" t="s">
-        <v>196</v>
-      </c>
-      <c r="FA1" t="s">
         <v>197</v>
       </c>
-      <c r="FB1" t="s">
+    </row>
+    <row r="2" spans="1:156" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>198</v>
       </c>
-      <c r="FC1" t="s">
+      <c r="C2" t="s">
         <v>199</v>
       </c>
-      <c r="FD1" t="s">
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="2" spans="1:160" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
         <v>201</v>
       </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="J2" t="s">
         <v>202</v>
       </c>
-      <c r="D2" t="s">
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
         <v>203</v>
       </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
         <v>204</v>
       </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
         <v>205</v>
       </c>
-      <c r="K2" t="s">
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
         <v>206</v>
       </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Y2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
         <v>207</v>
       </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="AG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
         <v>208</v>
       </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="AN2" t="s">
         <v>209</v>
       </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="AO2" t="s">
         <v>210</v>
       </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="AP2" t="s">
         <v>211</v>
       </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="AQ2" t="s">
         <v>212</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AR2" t="s">
         <v>213</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AS2" t="s">
         <v>214</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX2" t="s">
         <v>215</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ2" t="s">
         <v>216</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="BK2" t="s">
         <v>217</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="BL2" t="s">
         <v>218</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="BM2" t="s">
         <v>219</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="BN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP2" t="s">
         <v>220</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU2" t="s">
         <v>221</v>
       </c>
-      <c r="AX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
+      <c r="BV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG2" t="s">
         <v>222</v>
       </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BN2" t="s">
+      <c r="CH2" t="s">
         <v>223</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="CI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ2" t="s">
         <v>224</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="CK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>200</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY2" t="s">
         <v>225</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="CZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DT2" t="s">
         <v>226</v>
       </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
+      <c r="DU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DV2" t="s">
         <v>227</v>
       </c>
-      <c r="BU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
+      <c r="DW2" t="s">
         <v>228</v>
       </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK2" t="s">
+      <c r="DX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DZ2" t="s">
         <v>229</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="EA2" t="s">
         <v>230</v>
       </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
+      <c r="EB2" t="s">
         <v>231</v>
       </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>204</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DC2" t="s">
+      <c r="EC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EE2" t="s">
         <v>232</v>
       </c>
-      <c r="DD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DX2" t="s">
+      <c r="EF2" t="s">
         <v>233</v>
       </c>
-      <c r="DY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DZ2" t="s">
+      <c r="EG2" t="s">
         <v>234</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="EH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>205</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ER2" t="s">
         <v>235</v>
       </c>
-      <c r="EB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ED2" t="s">
+      <c r="ES2" t="s">
         <v>236</v>
       </c>
-      <c r="EE2" t="s">
+      <c r="ET2" t="s">
         <v>237</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EV2" t="s">
         <v>238</v>
       </c>
-      <c r="EG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>239</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>240</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>241</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>209</v>
-      </c>
-      <c r="ES2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ET2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EV2" t="s">
-        <v>242</v>
-      </c>
       <c r="EW2" t="s">
-        <v>243</v>
+        <v>36</v>
       </c>
       <c r="EX2" t="s">
-        <v>244</v>
+        <v>36</v>
       </c>
       <c r="EY2" t="s">
         <v>36</v>
       </c>
       <c r="EZ2" t="s">
-        <v>245</v>
-      </c>
-      <c r="FA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="FB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="FC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="FD2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2335,10 +2290,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Phoronida.xlsx
+++ b/data/dataPaper-I-in/arphified/Phoronida.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="239">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -273,9 +273,6 @@
     <t>genus</t>
   </si>
   <si>
-    <t>subgenus</t>
-  </si>
-  <si>
     <t>specificEpithet</t>
   </si>
   <si>
@@ -655,9 +652,6 @@
   </si>
   <si>
     <t>${genus}</t>
-  </si>
-  <si>
-    <t>${subgenus}</t>
   </si>
   <si>
     <t>${summary.authority}</t>
@@ -1331,10 +1325,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EZ2"/>
+  <dimension ref="A1:EY2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:156" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -1800,466 +1794,463 @@
       <c r="EY1" t="s">
         <v>196</v>
       </c>
-      <c r="EZ1" t="s">
+    </row>
+    <row r="2" spans="1:155" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="2" spans="1:156" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>198</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
         <v>199</v>
       </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
         <v>200</v>
       </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>201</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
         <v>202</v>
       </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
         <v>203</v>
       </c>
-      <c r="P2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
         <v>204</v>
       </c>
-      <c r="T2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
         <v>205</v>
       </c>
-      <c r="V2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
         <v>206</v>
       </c>
-      <c r="Y2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
         <v>207</v>
       </c>
-      <c r="AG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>208</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>209</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>210</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>211</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>212</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW2" t="s">
         <v>213</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
         <v>214</v>
       </c>
-      <c r="AT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX2" t="s">
+      <c r="BJ2" t="s">
         <v>215</v>
       </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
+      <c r="BK2" t="s">
         <v>216</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>217</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO2" t="s">
         <v>218</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
         <v>219</v>
       </c>
-      <c r="BN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BP2" t="s">
+      <c r="BU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
         <v>220</v>
       </c>
-      <c r="BQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BU2" t="s">
+      <c r="CG2" t="s">
         <v>221</v>
       </c>
-      <c r="BV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
+      <c r="CH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI2" t="s">
         <v>222</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>199</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
         <v>223</v>
       </c>
-      <c r="CI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CJ2" t="s">
+      <c r="CY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS2" t="s">
         <v>224</v>
       </c>
-      <c r="CK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>200</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
+      <c r="DT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DU2" t="s">
         <v>225</v>
       </c>
-      <c r="CZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DT2" t="s">
+      <c r="DV2" t="s">
         <v>226</v>
       </c>
-      <c r="DU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DV2" t="s">
+      <c r="DW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DY2" t="s">
         <v>227</v>
       </c>
-      <c r="DW2" t="s">
+      <c r="DZ2" t="s">
         <v>228</v>
       </c>
-      <c r="DX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DZ2" t="s">
+      <c r="EA2" t="s">
         <v>229</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="EB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED2" t="s">
         <v>230</v>
       </c>
-      <c r="EB2" t="s">
+      <c r="EE2" t="s">
         <v>231</v>
       </c>
-      <c r="EC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EE2" t="s">
+      <c r="EF2" t="s">
         <v>232</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>204</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ2" t="s">
         <v>233</v>
       </c>
-      <c r="EG2" t="s">
+      <c r="ER2" t="s">
         <v>234</v>
       </c>
-      <c r="EH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>205</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ER2" t="s">
+      <c r="ES2" t="s">
         <v>235</v>
       </c>
-      <c r="ES2" t="s">
+      <c r="ET2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EU2" t="s">
         <v>236</v>
       </c>
-      <c r="ET2" t="s">
-        <v>237</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>36</v>
-      </c>
       <c r="EV2" t="s">
-        <v>238</v>
+        <v>36</v>
       </c>
       <c r="EW2" t="s">
         <v>36</v>
@@ -2268,9 +2259,6 @@
         <v>36</v>
       </c>
       <c r="EY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EZ2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2290,10 +2278,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Phoronida.xlsx
+++ b/data/dataPaper-I-in/arphified/Phoronida.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="246">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -606,55 +606,25 @@
     <t>source</t>
   </si>
   <si>
-    <t>${gbifOccurrenceID}</t>
-  </si>
-  <si>
-    <t>${catalogNumber}</t>
-  </si>
-  <si>
-    <t>${recordedBy}</t>
-  </si>
-  <si>
-    <t>${individualCount}</t>
-  </si>
-  <si>
-    <t>${sex}</t>
+    <t>imerss.org:PMLS:6872</t>
+  </si>
+  <si>
+    <t>Andy Lamb</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>PRESENT</t>
   </si>
   <si>
-    <t>${taxonName}</t>
-  </si>
-  <si>
-    <t>!references.ref</t>
-  </si>
-  <si>
-    <t>iNaturalist:${iNaturalistTaxonId}</t>
-  </si>
-  <si>
-    <t>${summary.taxonName}</t>
-  </si>
-  <si>
-    <t>${kingdom}</t>
-  </si>
-  <si>
-    <t>${phylum}</t>
-  </si>
-  <si>
-    <t>${class}</t>
-  </si>
-  <si>
-    <t>${order}</t>
-  </si>
-  <si>
-    <t>${family}</t>
-  </si>
-  <si>
-    <t>${genus}</t>
-  </si>
-  <si>
-    <t>${summary.authority}</t>
+    <t>Phoronis ijimai</t>
+  </si>
+  <si>
+    <t>iNaturalist:372139</t>
+  </si>
+  <si>
+    <t>species</t>
   </si>
   <si>
     <t>Galiano Island</t>
@@ -669,61 +639,112 @@
     <t>British Columbia</t>
   </si>
   <si>
-    <t>${locality}</t>
-  </si>
-  <si>
-    <t>${depth}</t>
-  </si>
-  <si>
-    <t>${latitude}</t>
-  </si>
-  <si>
-    <t>${longitude}</t>
-  </si>
-  <si>
-    <t>${coordinateUncertaintyInMeters}</t>
-  </si>
-  <si>
-    <t>Confidence: ${confidence}</t>
-  </si>
-  <si>
-    <t>!references.samplingProtocol</t>
-  </si>
-  <si>
-    <t>!Date:YYYY-MM-DD</t>
-  </si>
-  <si>
-    <t>!Date:HH:mm:ss</t>
-  </si>
-  <si>
-    <t>!Date:YYYY</t>
-  </si>
-  <si>
-    <t>!Date:M</t>
-  </si>
-  <si>
-    <t>!Date:D</t>
-  </si>
-  <si>
-    <t>${fieldNumber}</t>
-  </si>
-  <si>
-    <t>${fieldNotes}</t>
-  </si>
-  <si>
-    <t>${eventRemarks}</t>
-  </si>
-  <si>
-    <t>!references.institutionCode</t>
-  </si>
-  <si>
-    <t>!references.collectionCode</t>
-  </si>
-  <si>
-    <t>!references.datasetName</t>
-  </si>
-  <si>
-    <t>!references.basisOfRecord</t>
+    <t>Walker Rock</t>
+  </si>
+  <si>
+    <t>48.92833</t>
+  </si>
+  <si>
+    <t>-123.50483</t>
+  </si>
+  <si>
+    <t>2008-04-27</t>
+  </si>
+  <si>
+    <t>14:43:00</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>patch</t>
+  </si>
+  <si>
+    <t>PMLS</t>
+  </si>
+  <si>
+    <t>Pacific Marine Life Survey Dive Records</t>
+  </si>
+  <si>
+    <t>HumanObservation</t>
+  </si>
+  <si>
+    <t>imerss.org:iNat:4014973</t>
+  </si>
+  <si>
+    <t>Karolle Wall</t>
+  </si>
+  <si>
+    <t>48.885738</t>
+  </si>
+  <si>
+    <t>-123.389992</t>
+  </si>
+  <si>
+    <t>1426</t>
+  </si>
+  <si>
+    <t>Andrew Simon</t>
+  </si>
+  <si>
+    <t>interpretation of locality, and/or inference based on local knowledge and species ecology</t>
+  </si>
+  <si>
+    <t>corrected</t>
+  </si>
+  <si>
+    <t>shunted to adjacent intertidal Montague Harbour</t>
+  </si>
+  <si>
+    <t>2013-06-26</t>
+  </si>
+  <si>
+    <t>14:37:00</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>iNaturalist</t>
+  </si>
+  <si>
+    <t>imerss.org:iNat:10538197</t>
+  </si>
+  <si>
+    <t>48.896931</t>
+  </si>
+  <si>
+    <t>-123.399611</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>11:01:00</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>31</t>
   </si>
   <si>
     <t>Link type</t>
@@ -1325,7 +1346,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EY2"/>
+  <dimension ref="A1:EY4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:155" x14ac:dyDescent="0.25">
@@ -1803,462 +1824,1396 @@
         <v>197</v>
       </c>
       <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
         <v>198</v>
       </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
         <v>199</v>
       </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
         <v>200</v>
       </c>
-      <c r="J2" t="s">
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
         <v>201</v>
       </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
         <v>202</v>
       </c>
-      <c r="P2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="Y2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU2" t="s">
         <v>203</v>
       </c>
-      <c r="T2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="AV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
         <v>204</v>
       </c>
-      <c r="V2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="BJ2" t="s">
         <v>205</v>
       </c>
-      <c r="Y2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="BK2" t="s">
         <v>206</v>
       </c>
-      <c r="AG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
+      <c r="BL2" t="s">
         <v>207</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="BM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO2" t="s">
         <v>208</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="BP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2">
+        <v>110</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
         <v>209</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="CG2" t="s">
         <v>210</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="CH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI2">
+        <v>500</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>198</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DU2" t="s">
         <v>211</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="DV2" t="s">
         <v>212</v>
       </c>
-      <c r="AS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW2" t="s">
+      <c r="DW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DY2" t="s">
         <v>213</v>
       </c>
-      <c r="AX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
+      <c r="DZ2" t="s">
         <v>214</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="EA2" t="s">
         <v>215</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="EB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EF2" t="s">
         <v>216</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="EG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ2" t="s">
         <v>217</v>
       </c>
-      <c r="BM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BO2" t="s">
+      <c r="ER2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ES2" t="s">
         <v>218</v>
       </c>
-      <c r="BP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
+      <c r="ET2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EU2" t="s">
         <v>219</v>
       </c>
-      <c r="BU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
+      <c r="EV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EY2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:155" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
         <v>220</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
         <v>221</v>
       </c>
-      <c r="CH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CI2" t="s">
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" t="s">
+        <v>200</v>
+      </c>
+      <c r="P3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" t="s">
+        <v>201</v>
+      </c>
+      <c r="T3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X3" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>204</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>205</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>206</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>207</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF3" t="s">
         <v>222</v>
       </c>
-      <c r="CJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>199</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
+      <c r="CG3" t="s">
         <v>223</v>
       </c>
-      <c r="CY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DS2" t="s">
+      <c r="CH3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI3" t="s">
         <v>224</v>
       </c>
-      <c r="DT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DU2" t="s">
+      <c r="CJ3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO3" t="s">
         <v>225</v>
       </c>
-      <c r="DV2" t="s">
+      <c r="CP3" t="s">
         <v>226</v>
       </c>
-      <c r="DW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DY2" t="s">
+      <c r="CQ3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR3" t="s">
         <v>227</v>
       </c>
-      <c r="DZ2" t="s">
+      <c r="CS3" t="s">
         <v>228</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="CT3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DT3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DU3" t="s">
         <v>229</v>
       </c>
-      <c r="EB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ED2" t="s">
+      <c r="DV3" t="s">
         <v>230</v>
       </c>
-      <c r="EE2" t="s">
+      <c r="DW3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DY3" t="s">
         <v>231</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="DZ3" t="s">
         <v>232</v>
       </c>
-      <c r="EG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EM2" t="s">
+      <c r="EA3" t="s">
+        <v>233</v>
+      </c>
+      <c r="EB3" t="s">
+        <v>36</v>
+      </c>
+      <c r="EC3" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED3" t="s">
+        <v>36</v>
+      </c>
+      <c r="EE3" t="s">
+        <v>36</v>
+      </c>
+      <c r="EF3" t="s">
+        <v>36</v>
+      </c>
+      <c r="EG3" t="s">
+        <v>36</v>
+      </c>
+      <c r="EH3" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI3" t="s">
+        <v>36</v>
+      </c>
+      <c r="EJ3" t="s">
+        <v>36</v>
+      </c>
+      <c r="EK3" t="s">
+        <v>36</v>
+      </c>
+      <c r="EL3" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM3" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN3" t="s">
+        <v>36</v>
+      </c>
+      <c r="EO3" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP3" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ3" t="s">
+        <v>234</v>
+      </c>
+      <c r="ER3" t="s">
+        <v>36</v>
+      </c>
+      <c r="ES3" t="s">
+        <v>36</v>
+      </c>
+      <c r="ET3" t="s">
+        <v>36</v>
+      </c>
+      <c r="EU3" t="s">
+        <v>219</v>
+      </c>
+      <c r="EV3" t="s">
+        <v>36</v>
+      </c>
+      <c r="EW3" t="s">
+        <v>36</v>
+      </c>
+      <c r="EX3" t="s">
+        <v>36</v>
+      </c>
+      <c r="EY3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:155" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>221</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" t="s">
+        <v>200</v>
+      </c>
+      <c r="P4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" t="s">
+        <v>201</v>
+      </c>
+      <c r="T4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V4" t="s">
+        <v>36</v>
+      </c>
+      <c r="W4" t="s">
+        <v>36</v>
+      </c>
+      <c r="X4" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>203</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI4" t="s">
         <v>204</v>
       </c>
-      <c r="EN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>233</v>
-      </c>
-      <c r="ER2" t="s">
+      <c r="BJ4" t="s">
+        <v>205</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>206</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>207</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>236</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>237</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>238</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>221</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DD4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DT4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DU4" t="s">
+        <v>239</v>
+      </c>
+      <c r="DV4" t="s">
+        <v>240</v>
+      </c>
+      <c r="DW4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX4" t="s">
+        <v>36</v>
+      </c>
+      <c r="DY4" t="s">
+        <v>241</v>
+      </c>
+      <c r="DZ4" t="s">
+        <v>242</v>
+      </c>
+      <c r="EA4" t="s">
+        <v>243</v>
+      </c>
+      <c r="EB4" t="s">
+        <v>36</v>
+      </c>
+      <c r="EC4" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED4" t="s">
+        <v>36</v>
+      </c>
+      <c r="EE4" t="s">
+        <v>36</v>
+      </c>
+      <c r="EF4" t="s">
+        <v>36</v>
+      </c>
+      <c r="EG4" t="s">
+        <v>36</v>
+      </c>
+      <c r="EH4" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI4" t="s">
+        <v>36</v>
+      </c>
+      <c r="EJ4" t="s">
+        <v>36</v>
+      </c>
+      <c r="EK4" t="s">
+        <v>36</v>
+      </c>
+      <c r="EL4" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM4" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN4" t="s">
+        <v>36</v>
+      </c>
+      <c r="EO4" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP4" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ4" t="s">
         <v>234</v>
       </c>
-      <c r="ES2" t="s">
-        <v>235</v>
-      </c>
-      <c r="ET2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>236</v>
-      </c>
-      <c r="EV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EY2" t="s">
+      <c r="ER4" t="s">
+        <v>36</v>
+      </c>
+      <c r="ES4" t="s">
+        <v>36</v>
+      </c>
+      <c r="ET4" t="s">
+        <v>36</v>
+      </c>
+      <c r="EU4" t="s">
+        <v>219</v>
+      </c>
+      <c r="EV4" t="s">
+        <v>36</v>
+      </c>
+      <c r="EW4" t="s">
+        <v>36</v>
+      </c>
+      <c r="EX4" t="s">
+        <v>36</v>
+      </c>
+      <c r="EY4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2278,10 +3233,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C1" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Phoronida.xlsx
+++ b/data/dataPaper-I-in/arphified/Phoronida.xlsx
@@ -2094,7 +2094,7 @@
         <v>36</v>
       </c>
       <c r="CO2" t="s">
-        <v>198</v>
+        <v>36</v>
       </c>
       <c r="CP2" t="s">
         <v>36</v>
@@ -3028,7 +3028,7 @@
         <v>36</v>
       </c>
       <c r="CO4" t="s">
-        <v>221</v>
+        <v>36</v>
       </c>
       <c r="CP4" t="s">
         <v>36</v>
